--- a/output/Bids_220412.xlsx
+++ b/output/Bids_220412.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e6431dddeb4959f/Documents/UiPath/Diamond/Project1/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\UiPath\sct9-diamond-proj1\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17379" documentId="11_F25DC773A252ABDACC104822E91F7E145ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F26091-51B1-42F3-A7DB-95AB32C8BFA1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF38B7-214C-4BC1-9DBC-AF5B7415EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Awarded" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OpenBids!$A$1:$P$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Top5'!$A$1:$P$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="331">
   <si>
     <t>Quote</t>
   </si>
@@ -119,229 +117,28 @@
     <t>Contact's Address</t>
   </si>
   <si>
-    <t>MOESCHETQ22001620</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001620 / 158/2022</t>
-  </si>
-  <si>
     <t>Quotation</t>
   </si>
   <si>
-    <t>Leadership Workshops for Secondary 1 and Secondary 2 Cohorts in Springfield Secondary School</t>
-  </si>
-  <si>
     <t>Ministry of Education - Schools</t>
   </si>
   <si>
-    <t>06 Apr 2022 09:34AM</t>
-  </si>
-  <si>
     <t>14 Apr 2022 01:00PM</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>MS SHAMALA</t>
-  </si>
-  <si>
-    <t>Shamala_balakrishnan@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>30 Tampines Ave 8 S529593</t>
-  </si>
-  <si>
-    <t>INDACIETQ22000039</t>
-  </si>
-  <si>
-    <t>INDACIETQ22000039 / Grace</t>
-  </si>
-  <si>
-    <t>Provision of Baby Grand Piano for the Music Performing Examination Purposes</t>
-  </si>
-  <si>
-    <t>Anglo-Chinese School (Independent)</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 05:35PM</t>
-  </si>
-  <si>
     <t>13 Apr 2022 01:00PM</t>
   </si>
   <si>
-    <t>FOO AI LIAN</t>
-  </si>
-  <si>
-    <t>annfooailian@acsindep.edu.sg</t>
-  </si>
-  <si>
-    <t>121 Dover Road</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001615</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001615 / TK 5/22</t>
-  </si>
-  <si>
-    <t>Provision of Instructors to execute S3 and S1 Values-In-Action Cohort programme</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 05:04PM</t>
-  </si>
-  <si>
-    <t>NOR HAZELIN IDAYU</t>
-  </si>
-  <si>
-    <t>nor_hazelin_idayu@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>130 HAIG ROAD SINGAPORE 438796</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001612</t>
-  </si>
-  <si>
-    <t>EL Journalism and Broadcasting Workshop 2022 for Sec 2 Cohort</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 02:19PM</t>
-  </si>
-  <si>
-    <t>MDM SUHAILAH BINTE JASNI</t>
-  </si>
-  <si>
-    <t>suhailah_jasni@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Mayflower Secondary School
-2 Ang Mo Kio Street 21
-Singapore 569384</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001585</t>
-  </si>
-  <si>
-    <t>Supply of Instructors to design, organise and conduct a developmentally appropriate 3-Day Non-Residential Cohort OAL Experience</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 02:04PM</t>
-  </si>
-  <si>
-    <t>08 Apr 2022 02:00PM</t>
-  </si>
-  <si>
-    <t>WEE TIEN SING DANIEL</t>
-  </si>
-  <si>
-    <t>wee_tien_sing_daniel@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>21 Serangoon North Ave 1 S555889</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001596</t>
-  </si>
-  <si>
-    <t>Sec 1 Non-Residential Outdoor Adventure Learning Camp</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 01:50PM</t>
-  </si>
-  <si>
-    <t>RON LOW YAO MING</t>
-  </si>
-  <si>
-    <t>low_yao_ming@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>13 Serangoon Ave 3</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001607</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Primary 3 to 5 Oracy Programme in St. Gabriel's Primary school (SGPS) in 2022.</t>
-  </si>
-  <si>
-    <t>05 Apr 2022 12:50PM</t>
-  </si>
-  <si>
-    <t>MRS ISABELLA TAN</t>
-  </si>
-  <si>
-    <t>isabella_sim@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>220 Lorong Chuan, Singapore 556742.</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001597</t>
-  </si>
-  <si>
-    <t>Supply of Learning Journey for Sec 1 Students to Places of Worship for West Spring Secondary School</t>
-  </si>
-  <si>
     <t>05 Apr 2022 11:05AM</t>
   </si>
   <si>
-    <t>MS KOH HUI LI</t>
-  </si>
-  <si>
-    <t>Koh_hui_li@moe.edu.sg</t>
-  </si>
-  <si>
     <t>West Spring Secondary School, 61 Senja Road, Singapore 677737</t>
   </si>
   <si>
-    <t>FOR000ETQ22000017</t>
-  </si>
-  <si>
-    <t>To engage a suitable Training Agency to design and conduct a five-day online course on "Entrepreneurship and Start-Up Ecosystems" for up to four runs</t>
-  </si>
-  <si>
-    <t>NIGEL JERAD RAJOO</t>
-  </si>
-  <si>
-    <t>nigel_jerad_rajoo@mfa.gov.sg</t>
-  </si>
-  <si>
     <t>Tanglin, Singapore 248163</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001598</t>
-  </si>
-  <si>
-    <t>Provision of 3-Day Primary 5 Non-Residential Outdoor Adventure Camp 2022</t>
-  </si>
-  <si>
-    <t>Add to Cale ndar</t>
-  </si>
-  <si>
-    <t>MR FAHMY</t>
-  </si>
-  <si>
-    <t>muhammad_fahmy_abdul_rahman@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>31 Anchorvale Drive
-Singapore 544969</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001593</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Cohort Leadership Training for Secondary 1, 2 and 3 Students in Tampines Secondary School</t>
-  </si>
-  <si>
-    <t>MR JOHN NG</t>
-  </si>
-  <si>
-    <t>ng_lee_wei_john@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>252 Tampines Street 12 Singapore 529427</t>
   </si>
   <si>
     <t>MOESCHETQ22001587</t>
@@ -1033,30 +830,6 @@
     <t>5,125.00 (SGD)</t>
   </si>
   <si>
-    <t>MOESCHETQ22001295</t>
-  </si>
-  <si>
-    <t>CPR/AED Programme for Secondary 3 Students in Bukit Batok Secondary School</t>
-  </si>
-  <si>
-    <t>ARIS INTEGRATED MEDICAL PTE. LTD.</t>
-  </si>
-  <si>
-    <t>7,344.00 (SGD)</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001283 / JYSS0062022</t>
-  </si>
-  <si>
-    <t>SUPPLY OF TRAINER(S) FOR IMPACTFUL COMMUNICATIONS TRAINING WORKSHOP, WITH CUSTOMISED PROFILING AND ASSESSMENT TESTS, FOR KEY PERSONNEL.</t>
-  </si>
-  <si>
-    <t>STRENGTHSASIA PTE. LTD.</t>
-  </si>
-  <si>
-    <t>11,000.00 (SGD)</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -1067,6 +840,235 @@
   </si>
   <si>
     <t>june_ng_goh_suat_hong@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001729</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 02:35PM</t>
+  </si>
+  <si>
+    <t>21 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>MR FAURONI SUKHAIMI</t>
+  </si>
+  <si>
+    <t>nai_wee_beng@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001745</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001745 / AOR2022/161(DesignThinking_P4)</t>
+  </si>
+  <si>
+    <t>Instructors for Design Thinking Workshop for P4 Students in Yangzheng Pri School</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 02:19PM</t>
+  </si>
+  <si>
+    <t>MDM LASIME KUMARI</t>
+  </si>
+  <si>
+    <t>lasime_kumari@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>15 Serangoon Avenue 3, Singapore 556108</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001740</t>
+  </si>
+  <si>
+    <t>2 DAYS STUDENTS LEADERS' TRAINING PROGRAMME</t>
+  </si>
+  <si>
+    <t>12 Apr 2022 09:20AM</t>
+  </si>
+  <si>
+    <t>MS LIAW HSIAO-MEIN</t>
+  </si>
+  <si>
+    <t>liaw_hsiao_mein@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>3 Yishun Ring Road
+S(768675)</t>
+  </si>
+  <si>
+    <t>HPB000ETQ22000010</t>
+  </si>
+  <si>
+    <t>INVITATION TO QUOTE (ITQ) FOR THE PROVISION OF SERVICES TO PROPOSE, DEVELOP AND DELIVER MENTAL HEALTH EXPERIENTIAL CRAFT WORKSHOPS</t>
+  </si>
+  <si>
+    <t>Health Promotion Board</t>
+  </si>
+  <si>
+    <t>KANG LEE LIN</t>
+  </si>
+  <si>
+    <t>KANG_Lee_Lin@hpb.gov.sg</t>
+  </si>
+  <si>
+    <t>Health Promotion Board 3 Second Hospital Avenue Singapore 168937</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001735</t>
+  </si>
+  <si>
+    <t>SUPPLY OF INSTRUCTORS FOR BAND INSTRUMENTAL PROGRAMME IN CRESCENT GIRLS SCHOOL  2022</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 05:04PM</t>
+  </si>
+  <si>
+    <t>20 Apr 2022 01:00PM</t>
+  </si>
+  <si>
+    <t>NORZAIDAH BINTE SUPARMAN</t>
+  </si>
+  <si>
+    <t>NORZAIDAH_SUPARMAN@CRESCENT.EDU.SG</t>
+  </si>
+  <si>
+    <t>CRESCENT GIRLS' SCHOOL</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001734</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001734 / MOESCHEAR22015582</t>
+  </si>
+  <si>
+    <t>Stamford Pri Sch - Supply of instructors for Design Thinking Project Coaching for Student Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINCOLN SHEN </t>
+  </si>
+  <si>
+    <t>shen_pinhong@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>1 Victoria Lane
+Singapore 198423</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001722</t>
+  </si>
+  <si>
+    <t>Supply of Instructor for Student Leadership Challenge Programme for Student Leaders (2022)</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 04:34PM</t>
+  </si>
+  <si>
+    <t>ALVIN LOH</t>
+  </si>
+  <si>
+    <t>loh_yongjie@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>St. Margaret's Secondary School
+111 Farrer Road
+Singapore 259240</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001716</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001716 / RIV_ITQ220024</t>
+  </si>
+  <si>
+    <t>RIVPS: SUPPLY OF INSTRUCTORS FOR P1AND P2 CHINESE SPEECH &amp; DRAMA ENRICHMENT PROGRAMME IN RIVERVALE PRIMARY SCHOOL</t>
+  </si>
+  <si>
+    <t>11 Apr 2022 04:04PM</t>
+  </si>
+  <si>
+    <t>RAN YIJUN</t>
+  </si>
+  <si>
+    <t>ran_yijun@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>80 RIVERVALE DRIVE
+SINGAPORE 545092</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001724</t>
+  </si>
+  <si>
+    <t>2 Days FALCONS Leadership Day Camp for Nan Chiau High School from 20-21 May 2022 (Non-residential)</t>
+  </si>
+  <si>
+    <t>MR AW SI KUAN</t>
+  </si>
+  <si>
+    <t>aw_si_kuan@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>20 Anchorvale Link, S(545079)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001720</t>
+  </si>
+  <si>
+    <t>The Provision of Blended/Face-To-Face Workshop on Standard First Aid (SFA) Course and Automated External Defibrillator (AED) Module</t>
+  </si>
+  <si>
+    <t>MR NEO ENG YEOW</t>
+  </si>
+  <si>
+    <t>neo_eng_yeow@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Nan Hua Primary School
+30 Jalan Lempeng
+Singapore 128806</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001703</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Career Design Simulation Programme for Secondary 3 Students in Presbyterian High School</t>
+  </si>
+  <si>
+    <t>MRS FAITH CHEN</t>
+  </si>
+  <si>
+    <t>mai_xueling@moe.edu.sg</t>
+  </si>
+  <si>
+    <t>Presbyterian High School, 5209 Ang Mo Kio Ave 6 Singapore 569845</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001322 / JYSS0102022</t>
+  </si>
+  <si>
+    <t>ITQ FOR SUPPLY AND DELIVERY OF SCHOOL OPERATION SERVICE ROBOTS (2 UNITS) FOR JUYING SECONDARY SCHOOL.</t>
+  </si>
+  <si>
+    <t>ROBOSOLUTIONS PTE. LTD.</t>
+  </si>
+  <si>
+    <t>17,000.00 (SGD)</t>
+  </si>
+  <si>
+    <t>RPO000ETQ22000030</t>
+  </si>
+  <si>
+    <t>Quotation for Smart Interactive Presentation System for CED</t>
+  </si>
+  <si>
+    <t>TECH-MEN TECHNOLOGY PTE. LTD.</t>
+  </si>
+  <si>
+    <t>15,480.00 (SGD)</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1385,6 +1387,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,10 +1740,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1746,19 +1751,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1766,19 +1771,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1786,19 +1791,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1806,19 +1811,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1826,19 +1831,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1846,19 +1851,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1866,19 +1871,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1886,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1906,19 +1911,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1926,19 +1931,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39582A0F-F993-4278-A272-EAB12E1434D8}">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2005,10 +2010,10 @@
         <v>20</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -2016,49 +2021,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="1">
+        <v>68920369</v>
+      </c>
+      <c r="M2" s="1">
+        <v>68929468</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1">
-        <v>63183053</v>
-      </c>
-      <c r="M2" s="1">
-        <v>63183050</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="29">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -2066,99 +2071,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>265</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="L3" s="1">
-        <v>68700439</v>
+        <v>62846298</v>
       </c>
       <c r="M3" s="1">
-        <v>67731433</v>
+        <v>62879778</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="O3" s="29">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="L4" s="1">
-        <v>63443471</v>
+        <v>62579873</v>
       </c>
       <c r="M4" s="1">
-        <v>64409624</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>47</v>
+        <v>62574373</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>275</v>
       </c>
       <c r="O4" s="29">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -2166,49 +2171,46 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="L5" s="1">
-        <v>64577783</v>
-      </c>
-      <c r="M5" s="1">
-        <v>64583284</v>
+        <v>64353273</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="O5" s="29">
-        <v>368</v>
+        <v>36</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -2216,193 +2218,199 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="L6" s="1">
-        <v>93660591</v>
+        <v>64758711</v>
+      </c>
+      <c r="M6" s="1">
+        <v>64741248</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="O6" s="29">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>284</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="L7" s="1">
-        <v>62824339</v>
+        <v>62945074</v>
       </c>
       <c r="M7" s="1">
-        <v>62823472</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>66</v>
+        <v>62919262</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>294</v>
       </c>
       <c r="O7" s="29">
-        <v>369</v>
+        <v>213</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="L8" s="1">
-        <v>62803628</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>72</v>
+        <v>64664525</v>
+      </c>
+      <c r="M8" s="1">
+        <v>64666709</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>300</v>
       </c>
       <c r="O8" s="29">
-        <v>55</v>
+        <v>344</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="L9" s="1">
-        <v>68920369</v>
+        <v>63887450</v>
       </c>
       <c r="M9" s="1">
-        <v>68929468</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>78</v>
+        <v>63887449</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>307</v>
       </c>
       <c r="O9" s="29">
-        <v>307</v>
+        <v>160</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -2410,96 +2418,96 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="L10" s="1">
-        <v>63798473</v>
+        <v>64897971</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="O10" s="29">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>315</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="L11" s="1">
-        <v>68861356</v>
+        <v>67788050</v>
       </c>
       <c r="M11" s="1">
-        <v>63159825</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>89</v>
+        <v>67784127</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>317</v>
       </c>
       <c r="O11" s="29">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -2507,49 +2515,49 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>319</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>304</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>320</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="L12" s="1">
-        <v>67835423</v>
+        <v>64543722</v>
       </c>
       <c r="M12" s="1">
-        <v>67843059</v>
+        <v>64543430</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>94</v>
+        <v>322</v>
       </c>
       <c r="O12" s="29">
-        <v>363</v>
+        <v>170</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -2557,34 +2565,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="L13" s="1">
         <v>65637173</v>
@@ -2593,13 +2601,13 @@
         <v>65693028</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="O13" s="29">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -2607,81 +2615,81 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="O14" s="29">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="L15" s="1">
         <v>64897851</v>
@@ -2689,14 +2697,14 @@
       <c r="M15" s="1">
         <v>64897859</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>111</v>
+      <c r="N15" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="O15" s="29">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -2704,34 +2712,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="L16" s="1">
         <v>62885633</v>
@@ -2740,13 +2748,13 @@
         <v>62830113</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="O16" s="29">
-        <v>102</v>
+        <v>389</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -2754,34 +2762,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="L17" s="1">
         <v>67819002</v>
@@ -2790,13 +2798,13 @@
         <v>67845054</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="O17" s="29">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -2804,34 +2812,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="L18" s="1">
         <v>65827864</v>
@@ -2840,48 +2848,48 @@
         <v>65822543</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="O18" s="29">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="L19" s="1">
         <v>68767129</v>
@@ -2889,49 +2897,49 @@
       <c r="M19" s="1">
         <v>67557748</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>132</v>
+      <c r="N19" s="41" t="s">
+        <v>66</v>
       </c>
       <c r="O19" s="29">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="L20" s="1">
         <v>63440929</v>
@@ -2939,14 +2947,14 @@
       <c r="M20" s="1">
         <v>63445152</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>138</v>
+      <c r="N20" s="41" t="s">
+        <v>72</v>
       </c>
       <c r="O20" s="29">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -2954,81 +2962,81 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="L21" s="1">
         <v>67788431</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="O21" s="29">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="L22" s="1">
         <v>67566760</v>
@@ -3036,61 +3044,61 @@
       <c r="M22" s="1">
         <v>67585380</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>148</v>
+      <c r="N22" s="41" t="s">
+        <v>82</v>
       </c>
       <c r="O22" s="29">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="L23" s="1">
         <v>65936851</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>153</v>
+      <c r="N23" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="O23" s="29">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -3098,93 +3106,93 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="L24" s="1">
         <v>69089136</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="O24" s="29">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="L25" s="1">
         <v>63450533</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>153</v>
+      <c r="N25" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="O25" s="29">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -3192,81 +3200,81 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="L26" s="1">
         <v>62593811</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="O26" s="29">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="L27" s="1">
         <v>62410417</v>
@@ -3274,14 +3282,14 @@
       <c r="M27" s="1">
         <v>64493042</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>169</v>
+      <c r="N27" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="O27" s="29">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -3289,46 +3297,46 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="O28" s="29">
-        <v>59</v>
+        <v>380</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -3336,34 +3344,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="L29" s="1">
         <v>65701588</v>
@@ -3372,13 +3380,13 @@
         <v>65703680</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="O29" s="29">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -3386,34 +3394,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="L30" s="1">
         <v>64775777</v>
@@ -3422,48 +3430,48 @@
         <v>64775700</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="O30" s="29">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="L31" s="1">
         <v>65661980</v>
@@ -3471,14 +3479,14 @@
       <c r="M31" s="1">
         <v>65635015</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>189</v>
+      <c r="N31" s="41" t="s">
+        <v>123</v>
       </c>
       <c r="O31" s="29">
-        <v>365</v>
+        <v>54</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -3486,46 +3494,46 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="L32" s="1">
         <v>64485011</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="O32" s="29">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -3533,93 +3541,93 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="L33" s="1">
         <v>67697176</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="O33" s="29">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="L34" s="1">
         <v>63441393</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>206</v>
+      <c r="N34" s="41" t="s">
+        <v>140</v>
       </c>
       <c r="O34" s="29">
-        <v>308</v>
+        <v>142</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -3627,34 +3635,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="L35" s="1">
         <v>67676750</v>
@@ -3663,48 +3671,48 @@
         <v>67676751</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="O35" s="29">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="L36" s="1">
         <v>62816606</v>
@@ -3712,14 +3720,14 @@
       <c r="M36" s="1">
         <v>63820558</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>216</v>
+      <c r="N36" s="41" t="s">
+        <v>150</v>
       </c>
       <c r="O36" s="29">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -3727,34 +3735,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="L37" s="1">
         <v>65634568</v>
@@ -3763,13 +3771,13 @@
         <v>65634505</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="O37" s="29">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -3777,34 +3785,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="L38" s="1">
         <v>67639455</v>
@@ -3813,48 +3821,48 @@
         <v>67633577</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="O38" s="29">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="L39" s="1">
         <v>62698832</v>
@@ -3862,49 +3870,49 @@
       <c r="M39" s="1">
         <v>63575516</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>232</v>
+      <c r="N39" s="41" t="s">
+        <v>166</v>
       </c>
       <c r="O39" s="29">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="L40" s="1">
         <v>62889470</v>
@@ -3912,14 +3920,14 @@
       <c r="M40" s="1">
         <v>62898615</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>237</v>
+      <c r="N40" s="41" t="s">
+        <v>171</v>
       </c>
       <c r="O40" s="29">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -3927,46 +3935,46 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="L41" s="1">
         <v>67932039</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="O41" s="29">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -3974,34 +3982,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="L42" s="1">
         <v>65729100</v>
@@ -4010,13 +4018,13 @@
         <v>67636560</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="O42" s="29">
-        <v>395</v>
+        <v>90</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -4024,34 +4032,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="L43" s="1">
         <v>64741421</v>
@@ -4060,13 +4068,13 @@
         <v>64741302</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="O43" s="29">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -4074,34 +4082,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="L44" s="1">
         <v>64741421</v>
@@ -4110,13 +4118,13 @@
         <v>64741302</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="O44" s="29">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
@@ -4124,46 +4132,46 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="L45" s="1">
         <v>67697176</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="O45" s="29">
-        <v>169</v>
+        <v>369</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -4171,34 +4179,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="L46" s="1">
         <v>63683925</v>
@@ -4207,13 +4215,13 @@
         <v>63670117</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="O46" s="29">
-        <v>396</v>
+        <v>64</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -4221,34 +4229,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="L47" s="1">
         <v>62835413</v>
@@ -4257,13 +4265,13 @@
         <v>62823882</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="O47" s="29">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -4271,46 +4279,46 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="L48" s="1">
         <v>68319636</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="O48" s="29">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -4318,34 +4326,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="L49" s="1">
         <v>64428307</v>
@@ -4354,13 +4362,13 @@
         <v>64435973</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="O49" s="29">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4378,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5E9977-255A-404F-9037-914CC69CEAF6}">
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
@@ -4427,260 +4435,258 @@
         <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="P1" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="L2">
-        <v>63683925</v>
+        <v>65637173</v>
       </c>
       <c r="M2">
-        <v>63670117</v>
+        <v>65693028</v>
       </c>
       <c r="N2" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="O2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P2" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>260</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="K3" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="L3">
-        <v>65729100</v>
+        <v>68920369</v>
       </c>
       <c r="M3">
-        <v>67636560</v>
+        <v>68929468</v>
       </c>
       <c r="N3" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="O3">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P3" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>50</v>
       </c>
       <c r="L4">
-        <v>62698832</v>
+        <v>62885633</v>
       </c>
       <c r="M4">
-        <v>63575516</v>
+        <v>62830113</v>
       </c>
       <c r="N4" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="O4">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="P4" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
         <v>63</v>
       </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
       <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5">
-        <v>62824339</v>
-      </c>
-      <c r="M5">
-        <v>62823472</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
       <c r="O5">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="P5" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="L6">
-        <v>64577783</v>
+        <v>67639455</v>
       </c>
       <c r="M6">
-        <v>64583284</v>
+        <v>67633577</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="O6">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="P6" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -5457,1492 +5463,9 @@
       <c r="O49"/>
       <c r="P49"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
-      <c r="P82"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
-      <c r="P83"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="O87"/>
-      <c r="P87"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A88"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88"/>
-      <c r="P88"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="O89"/>
-      <c r="P89"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
-      <c r="P90"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
-      <c r="P91"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="O92"/>
-      <c r="P92"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A93"/>
-      <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
-      <c r="P93"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A94"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
-      <c r="P94"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="O95"/>
-      <c r="P95"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
-      <c r="O96"/>
-      <c r="P96"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-      <c r="O97"/>
-      <c r="P97"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
-      <c r="P101"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
-      <c r="M102"/>
-      <c r="N102"/>
-      <c r="O102"/>
-      <c r="P102"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
-      <c r="M103"/>
-      <c r="N103"/>
-      <c r="O103"/>
-      <c r="P103"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
-      <c r="M104"/>
-      <c r="N104"/>
-      <c r="O104"/>
-      <c r="P104"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
-      <c r="P105"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-      <c r="P109"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
-      <c r="P111"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112"/>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="O112"/>
-      <c r="P112"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
-      <c r="J113"/>
-      <c r="K113"/>
-      <c r="L113"/>
-      <c r="M113"/>
-      <c r="N113"/>
-      <c r="O113"/>
-      <c r="P113"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
-      <c r="K114"/>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115"/>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115"/>
-      <c r="P115"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="H117"/>
-      <c r="I117"/>
-      <c r="J117"/>
-      <c r="K117"/>
-      <c r="L117"/>
-      <c r="M117"/>
-      <c r="N117"/>
-      <c r="O117"/>
-      <c r="P117"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-      <c r="P118"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119"/>
-      <c r="K119"/>
-      <c r="L119"/>
-      <c r="M119"/>
-      <c r="N119"/>
-      <c r="O119"/>
-      <c r="P119"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120"/>
-      <c r="N120"/>
-      <c r="O120"/>
-      <c r="P120"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121"/>
-      <c r="L121"/>
-      <c r="M121"/>
-      <c r="N121"/>
-      <c r="O121"/>
-      <c r="P121"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
-      <c r="K122"/>
-      <c r="L122"/>
-      <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122"/>
-      <c r="P122"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
-      <c r="M123"/>
-      <c r="N123"/>
-      <c r="O123"/>
-      <c r="P123"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
-      <c r="N124"/>
-      <c r="O124"/>
-      <c r="P124"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
-      <c r="N125"/>
-      <c r="O125"/>
-      <c r="P125"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126"/>
-      <c r="P126"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="H127"/>
-      <c r="I127"/>
-      <c r="J127"/>
-      <c r="K127"/>
-      <c r="L127"/>
-      <c r="M127"/>
-      <c r="N127"/>
-      <c r="O127"/>
-      <c r="P127"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A128"/>
-      <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128"/>
-      <c r="K128"/>
-      <c r="L128"/>
-      <c r="M128"/>
-      <c r="N128"/>
-      <c r="O128"/>
-      <c r="P128"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A129"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="H129"/>
-      <c r="I129"/>
-      <c r="J129"/>
-      <c r="K129"/>
-      <c r="L129"/>
-      <c r="M129"/>
-      <c r="N129"/>
-      <c r="O129"/>
-      <c r="P129"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A130"/>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
-      <c r="K130"/>
-      <c r="L130"/>
-      <c r="M130"/>
-      <c r="N130"/>
-      <c r="O130"/>
-      <c r="P130"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A131"/>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="H131"/>
-      <c r="I131"/>
-      <c r="J131"/>
-      <c r="K131"/>
-      <c r="L131"/>
-      <c r="M131"/>
-      <c r="N131"/>
-      <c r="O131"/>
-      <c r="P131"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A132"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P132">
-    <sortCondition descending="1" ref="O1:O132"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P49">
+    <sortCondition descending="1" ref="O1:O49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6952,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6962,39 +5485,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="46" x14ac:dyDescent="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
     <row r="4" spans="2:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="F4" s="46" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="F4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="J4" s="52" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="J4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
@@ -7061,46 +5584,46 @@
       <c r="L10" s="25"/>
     </row>
     <row r="13" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="44" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="30">
         <f>'Top5'!A2</f>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C15" s="31" t="str">
         <f>'Top5'!C2</f>
-        <v>MOESCHETQ22001492</v>
+        <v>MOESCHETQ22001587</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="38" t="str">
         <f>'Top5'!E2</f>
-        <v>Supply of Instructors for Malay Language (ML) Speech and Drama Programme</v>
+        <v>Swiss Cottage Sec Sch: Supply of Instructor for English Language programme for Sec 1 &amp; 3 students</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -7109,23 +5632,23 @@
       <c r="J15" s="40"/>
       <c r="K15" s="34" t="str">
         <f>'Top5'!H2</f>
-        <v>07 Apr 2022 01:00PM</v>
+        <v>12 Apr 2022 01:00PM</v>
       </c>
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="30">
         <f>'Top5'!A3</f>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C16" s="31" t="str">
         <f>'Top5'!C3</f>
-        <v>MOESCHETQ22001514</v>
+        <v>MOESCHETQ22001729</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="38" t="str">
         <f>'Top5'!E3</f>
-        <v>Leadership Development Programme for Education Officers (EOs)</v>
+        <v>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -7134,23 +5657,23 @@
       <c r="J16" s="40"/>
       <c r="K16" s="34" t="str">
         <f>'Top5'!H3</f>
-        <v>12 Apr 2022 01:00PM</v>
+        <v>21 Apr 2022 01:00PM</v>
       </c>
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="30">
         <f>'Top5'!A4</f>
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C17" s="31" t="str">
         <f>'Top5'!C4</f>
-        <v>MOESCHETQ22001511 / 1161/PE/22/003</v>
+        <v>MOESCHETQ22001570 / CPS-22/7419/04</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="38" t="str">
         <f>'Top5'!E4</f>
-        <v>Supply of Instructors for 1-day Primary 3 Friendship Camp 2022</v>
+        <v>Supply of Instructors for Student Leadership Training 2022 for Student Leaders (Online/Offline)  in Cedar Primary School.</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -7166,16 +5689,16 @@
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="30">
         <f>'Top5'!A5</f>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C18" s="31" t="str">
         <f>'Top5'!C5</f>
-        <v>MOESCHETQ22001596</v>
+        <v>FOR000ETQ22000016</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="38" t="str">
         <f>'Top5'!E5</f>
-        <v>Sec 1 Non-Residential Outdoor Adventure Learning Camp</v>
+        <v>Engagement of a Training Agency to conduct an online course on Health Policy &amp; the Role of Data &amp; Technology in Healthcare</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -7184,23 +5707,23 @@
       <c r="J18" s="40"/>
       <c r="K18" s="34" t="str">
         <f>'Top5'!H5</f>
-        <v>13 Apr 2022 01:00PM</v>
+        <v>11 Apr 2022 01:00PM</v>
       </c>
       <c r="L18" s="32"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="30">
         <f>'Top5'!A6</f>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C19" s="31" t="str">
         <f>'Top5'!C6</f>
-        <v>MOESCHETQ22001612</v>
+        <v>MOESCHETQ22001513</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="35" t="str">
         <f>'Top5'!E6</f>
-        <v>EL Journalism and Broadcasting Workshop 2022 for Sec 2 Cohort</v>
+        <v>Supply of Instructors for Sec 1 Public Speaking Programme in Zhenghua Sec Sch</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -7209,7 +5732,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="34" t="str">
         <f>'Top5'!H6</f>
-        <v>13 Apr 2022 01:00PM</v>
+        <v>08 Apr 2022 01:00PM</v>
       </c>
       <c r="L19" s="32"/>
     </row>

--- a/output/Bids_220412.xlsx
+++ b/output/Bids_220412.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\UiPath\sct9-diamond-proj1\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF38B7-214C-4BC1-9DBC-AF5B7415EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF774D2B-6844-4A5A-BFD2-C9E41EAB976E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="331">
   <si>
     <t>Quote</t>
   </si>
@@ -2060,7 +2060,7 @@
         <v>27</v>
       </c>
       <c r="O2" s="29">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>255</v>
@@ -2110,7 +2110,7 @@
         <v>269</v>
       </c>
       <c r="O3" s="29">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>255</v>
@@ -2160,7 +2160,7 @@
         <v>275</v>
       </c>
       <c r="O4" s="29">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>255</v>
@@ -2207,7 +2207,7 @@
         <v>281</v>
       </c>
       <c r="O5" s="29">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>255</v>
@@ -2257,7 +2257,7 @@
         <v>288</v>
       </c>
       <c r="O6" s="29">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>255</v>
@@ -2307,7 +2307,7 @@
         <v>294</v>
       </c>
       <c r="O7" s="29">
-        <v>213</v>
+        <v>365</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>255</v>
@@ -2357,7 +2357,7 @@
         <v>300</v>
       </c>
       <c r="O8" s="29">
-        <v>344</v>
+        <v>89</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>255</v>
@@ -2407,7 +2407,7 @@
         <v>307</v>
       </c>
       <c r="O9" s="29">
-        <v>160</v>
+        <v>368</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>255</v>
@@ -2454,7 +2454,7 @@
         <v>312</v>
       </c>
       <c r="O10" s="29">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>255</v>
@@ -2504,7 +2504,7 @@
         <v>317</v>
       </c>
       <c r="O11" s="29">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>255</v>
@@ -2554,7 +2554,7 @@
         <v>322</v>
       </c>
       <c r="O12" s="29">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>255</v>
@@ -2604,7 +2604,7 @@
         <v>34</v>
       </c>
       <c r="O13" s="29">
-        <v>399</v>
+        <v>139</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>255</v>
@@ -2651,7 +2651,7 @@
         <v>40</v>
       </c>
       <c r="O14" s="29">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>255</v>
@@ -2701,7 +2701,7 @@
         <v>45</v>
       </c>
       <c r="O15" s="29">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>255</v>
@@ -2751,7 +2751,7 @@
         <v>51</v>
       </c>
       <c r="O16" s="29">
-        <v>389</v>
+        <v>98</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>255</v>
@@ -2801,7 +2801,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="29">
-        <v>186</v>
+        <v>320</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>255</v>
@@ -2851,7 +2851,7 @@
         <v>60</v>
       </c>
       <c r="O18" s="29">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>255</v>
@@ -2901,7 +2901,7 @@
         <v>66</v>
       </c>
       <c r="O19" s="29">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>255</v>
@@ -2951,7 +2951,7 @@
         <v>72</v>
       </c>
       <c r="O20" s="29">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>255</v>
@@ -2998,7 +2998,7 @@
         <v>77</v>
       </c>
       <c r="O21" s="29">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>255</v>
@@ -3048,7 +3048,7 @@
         <v>82</v>
       </c>
       <c r="O22" s="29">
-        <v>102</v>
+        <v>397</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>255</v>
@@ -3095,7 +3095,7 @@
         <v>87</v>
       </c>
       <c r="O23" s="29">
-        <v>227</v>
+        <v>395</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>255</v>
@@ -3142,7 +3142,7 @@
         <v>40</v>
       </c>
       <c r="O24" s="29">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>255</v>
@@ -3189,7 +3189,7 @@
         <v>87</v>
       </c>
       <c r="O25" s="29">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>255</v>
@@ -3236,7 +3236,7 @@
         <v>98</v>
       </c>
       <c r="O26" s="29">
-        <v>345</v>
+        <v>179</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>255</v>
@@ -3286,7 +3286,7 @@
         <v>103</v>
       </c>
       <c r="O27" s="29">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>255</v>
@@ -3333,7 +3333,7 @@
         <v>28</v>
       </c>
       <c r="O28" s="29">
-        <v>380</v>
+        <v>96</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>255</v>
@@ -3383,7 +3383,7 @@
         <v>113</v>
       </c>
       <c r="O29" s="29">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>255</v>
@@ -3433,7 +3433,7 @@
         <v>118</v>
       </c>
       <c r="O30" s="29">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>255</v>
@@ -3483,7 +3483,7 @@
         <v>123</v>
       </c>
       <c r="O31" s="29">
-        <v>54</v>
+        <v>367</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>255</v>
@@ -3530,7 +3530,7 @@
         <v>128</v>
       </c>
       <c r="O32" s="29">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>255</v>
@@ -3577,7 +3577,7 @@
         <v>133</v>
       </c>
       <c r="O33" s="29">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>255</v>
@@ -3624,7 +3624,7 @@
         <v>140</v>
       </c>
       <c r="O34" s="29">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>255</v>
@@ -3674,7 +3674,7 @@
         <v>145</v>
       </c>
       <c r="O35" s="29">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>255</v>
@@ -3724,7 +3724,7 @@
         <v>150</v>
       </c>
       <c r="O36" s="29">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>255</v>
@@ -3774,7 +3774,7 @@
         <v>155</v>
       </c>
       <c r="O37" s="29">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>255</v>
@@ -3824,7 +3824,7 @@
         <v>160</v>
       </c>
       <c r="O38" s="29">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>255</v>
@@ -3874,7 +3874,7 @@
         <v>166</v>
       </c>
       <c r="O39" s="29">
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>255</v>
@@ -3924,7 +3924,7 @@
         <v>171</v>
       </c>
       <c r="O40" s="29">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>255</v>
@@ -3971,7 +3971,7 @@
         <v>177</v>
       </c>
       <c r="O41" s="29">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>255</v>
@@ -4021,7 +4021,7 @@
         <v>182</v>
       </c>
       <c r="O42" s="29">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>255</v>
@@ -4071,7 +4071,7 @@
         <v>187</v>
       </c>
       <c r="O43" s="29">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>255</v>
@@ -4121,7 +4121,7 @@
         <v>190</v>
       </c>
       <c r="O44" s="29">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>255</v>
@@ -4168,7 +4168,7 @@
         <v>133</v>
       </c>
       <c r="O45" s="29">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>255</v>
@@ -4218,7 +4218,7 @@
         <v>199</v>
       </c>
       <c r="O46" s="29">
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>255</v>
@@ -4268,7 +4268,7 @@
         <v>204</v>
       </c>
       <c r="O47" s="29">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>255</v>
@@ -4315,7 +4315,7 @@
         <v>212</v>
       </c>
       <c r="O48" s="29">
-        <v>267</v>
+        <v>127</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>255</v>
@@ -4365,7 +4365,7 @@
         <v>218</v>
       </c>
       <c r="O49" s="29">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>255</v>
@@ -4443,19 +4443,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -4464,28 +4464,28 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="L2">
-        <v>65637173</v>
+        <v>67566760</v>
       </c>
       <c r="M2">
-        <v>65693028</v>
+        <v>67585380</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="O2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P2" t="s">
         <v>255</v>
@@ -4493,49 +4493,47 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="L3">
-        <v>68920369</v>
-      </c>
-      <c r="M3">
-        <v>68929468</v>
-      </c>
+        <v>65936851</v>
+      </c>
+      <c r="M3"/>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="O3">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P3" t="s">
         <v>255</v>
@@ -4543,19 +4541,19 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
@@ -4564,28 +4562,26 @@
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="L4">
-        <v>62885633</v>
-      </c>
-      <c r="M4">
-        <v>62830113</v>
-      </c>
+        <v>67697176</v>
+      </c>
+      <c r="M4"/>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="O4">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P4" t="s">
         <v>255</v>
@@ -4593,47 +4589,49 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>285</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M5"/>
+        <v>306</v>
+      </c>
+      <c r="L5">
+        <v>63887450</v>
+      </c>
+      <c r="M5">
+        <v>63887449</v>
+      </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c r="O5">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="P5" t="s">
         <v>255</v>
@@ -4641,19 +4639,19 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -4662,28 +4660,28 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="K6" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="L6">
-        <v>67639455</v>
+        <v>65661980</v>
       </c>
       <c r="M6">
-        <v>67633577</v>
+        <v>65635015</v>
       </c>
       <c r="N6" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="O6">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="P6" t="s">
         <v>255</v>
@@ -5614,16 +5612,16 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="30">
         <f>'Top5'!A2</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C15" s="31" t="str">
         <f>'Top5'!C2</f>
-        <v>MOESCHETQ22001587</v>
+        <v>MOESCHETQ22001559</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="38" t="str">
         <f>'Top5'!E2</f>
-        <v>Swiss Cottage Sec Sch: Supply of Instructor for English Language programme for Sec 1 &amp; 3 students</v>
+        <v>Supply of Instructors for Leadership and Design Thinking in Sembawang Secondary School</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -5632,23 +5630,23 @@
       <c r="J15" s="40"/>
       <c r="K15" s="34" t="str">
         <f>'Top5'!H2</f>
-        <v>12 Apr 2022 01:00PM</v>
+        <v>13 Apr 2022 01:00PM</v>
       </c>
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="30">
         <f>'Top5'!A3</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C16" s="31" t="str">
         <f>'Top5'!C3</f>
-        <v>MOESCHETQ22001729</v>
+        <v>MOESCHETQ22001557</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="38" t="str">
         <f>'Top5'!E3</f>
-        <v>Supply of Instructors for Provision of 3-Day Secondary 1 Outdoor Adventure Camp (Non-Residential) for West Spring Secondary School</v>
+        <v>Dunman High School - Provision Of Strength Programme (Profiling And Workshop) For Year 3</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -5657,23 +5655,23 @@
       <c r="J16" s="40"/>
       <c r="K16" s="34" t="str">
         <f>'Top5'!H3</f>
-        <v>21 Apr 2022 01:00PM</v>
+        <v>12 Apr 2022 01:00PM</v>
       </c>
       <c r="L16" s="32"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="30">
         <f>'Top5'!A4</f>
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C17" s="31" t="str">
         <f>'Top5'!C4</f>
-        <v>MOESCHETQ22001570 / CPS-22/7419/04</v>
+        <v>MOESCHETQ22001507</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="38" t="str">
         <f>'Top5'!E4</f>
-        <v>Supply of Instructors for Student Leadership Training 2022 for Student Leaders (Online/Offline)  in Cedar Primary School.</v>
+        <v>Supply of Instructors for P5 &amp; P6 Carpe Diem Learning Journey in South View Primary School.</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -5682,23 +5680,23 @@
       <c r="J17" s="40"/>
       <c r="K17" s="34" t="str">
         <f>'Top5'!H4</f>
-        <v>12 Apr 2022 01:00PM</v>
+        <v>07 Apr 2022 01:00PM</v>
       </c>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="30">
         <f>'Top5'!A5</f>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C18" s="31" t="str">
         <f>'Top5'!C5</f>
-        <v>FOR000ETQ22000016</v>
+        <v>MOESCHETQ22001716 / RIV_ITQ220024</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="38" t="str">
         <f>'Top5'!E5</f>
-        <v>Engagement of a Training Agency to conduct an online course on Health Policy &amp; the Role of Data &amp; Technology in Healthcare</v>
+        <v>RIVPS: SUPPLY OF INSTRUCTORS FOR P1AND P2 CHINESE SPEECH &amp; DRAMA ENRICHMENT PROGRAMME IN RIVERVALE PRIMARY SCHOOL</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -5707,23 +5705,23 @@
       <c r="J18" s="40"/>
       <c r="K18" s="34" t="str">
         <f>'Top5'!H5</f>
-        <v>11 Apr 2022 01:00PM</v>
+        <v>20 Apr 2022 01:00PM</v>
       </c>
       <c r="L18" s="32"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="30">
         <f>'Top5'!A6</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C19" s="31" t="str">
         <f>'Top5'!C6</f>
-        <v>MOESCHETQ22001513</v>
+        <v>MOESCHETQ22001544</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="35" t="str">
         <f>'Top5'!E6</f>
-        <v>Supply of Instructors for Sec 1 Public Speaking Programme in Zhenghua Sec Sch</v>
+        <v>Supply of Instructors for Leadership Developmental Programme for P5 Cohort students in Bukit View Primary School</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
@@ -5732,7 +5730,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="34" t="str">
         <f>'Top5'!H6</f>
-        <v>08 Apr 2022 01:00PM</v>
+        <v>11 Apr 2022 01:00PM</v>
       </c>
       <c r="L19" s="32"/>
     </row>
